--- a/Quote_History_BB/#LISTA_FUNDOS.xlsx
+++ b/Quote_History_BB/#LISTA_FUNDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Trend_Fundos_BB\Quote_History_BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B76B10-CC4A-4684-B455-EC32BED951F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B11E5D-E329-4DE4-9550-6D182483B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{1381F4EF-6E41-4314-B5A2-4DD27EF1CF31}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>BB Ações Setor Financeiro</t>
   </si>
@@ -214,6 +214,81 @@
   </si>
   <si>
     <t>Link_BB_INFO</t>
+  </si>
+  <si>
+    <t>BB Acoes Agro</t>
+  </si>
+  <si>
+    <t>BB Acoes BB</t>
+  </si>
+  <si>
+    <t>BB Acoes Dividendos</t>
+  </si>
+  <si>
+    <t>BB Acoes Energia</t>
+  </si>
+  <si>
+    <t>BB Acoes Governança</t>
+  </si>
+  <si>
+    <t>BB Acoes Infraestrutura</t>
+  </si>
+  <si>
+    <t>BB Acoes Alocacao ETF</t>
+  </si>
+  <si>
+    <t>BB Acoes Alocacao</t>
+  </si>
+  <si>
+    <t>BB Acoes Bolsa Americana</t>
+  </si>
+  <si>
+    <t>BB Acoes Bolsa Brasileira</t>
+  </si>
+  <si>
+    <t>BB Acoes Consumo FIC FI</t>
+  </si>
+  <si>
+    <t>BB Acoes Dividendos Midcaps FIC FI</t>
+  </si>
+  <si>
+    <t>BB Acoes Ibovespa Ativo</t>
+  </si>
+  <si>
+    <t>BB Acoes Setor Financeiro</t>
+  </si>
+  <si>
+    <t>BB Acoes Bolsas Europeias</t>
+  </si>
+  <si>
+    <t>BB Acoes Bolsas Globais Ativo</t>
+  </si>
+  <si>
+    <t>BB Acoes Exportacao</t>
+  </si>
+  <si>
+    <t>BB Acoes Selecao Fatorial</t>
+  </si>
+  <si>
+    <t>BB Acos Siderurgia</t>
+  </si>
+  <si>
+    <t>BB Acoes Tecnologia BDR</t>
+  </si>
+  <si>
+    <t>BB Acoes US Biotech</t>
+  </si>
+  <si>
+    <t>BB Multimercado Dinamico</t>
+  </si>
+  <si>
+    <t>https://www.bb.com.br/uci/informe-mensal.html?gfi=1834&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um fundo de gestão ativa com carteira composta por ações de empresas brasileiras e BDRs, que tenham receitas ligadas ao agronegócio. </t>
+  </si>
+  <si>
+    <t>Day_bank</t>
   </si>
 </sst>
 </file>
@@ -281,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -328,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,33 +725,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F4CD79-3C21-4386-B9C9-BD01D2CF90B3}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="18" customWidth="1"/>
     <col min="4" max="5" width="13.44140625" style="16" customWidth="1"/>
     <col min="6" max="6" width="33.77734375" style="16" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.88671875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="16.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -692,578 +772,677 @@
         <v>53</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="F2" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="14" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>5</v>
       </c>
       <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="15"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="15"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
-        <v>32</v>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="15"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="6">
+        <v>5</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="6"/>
+      <c r="L15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
+      <c r="B17" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="G18" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>37</v>
+      <c r="B20" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="F20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G22" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+      <c r="L25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="F26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="G28" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="G30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="11" t="s">
-        <v>34</v>
+      <c r="B31" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
         <v>31</v>
@@ -1271,92 +1450,107 @@
       <c r="C32" s="2"/>
       <c r="D32" s="15"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="15"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K33" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="14"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="11" t="s">
-        <v>23</v>
+      <c r="B35" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="14"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="15"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="14"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="15"/>
@@ -1366,10 +1560,11 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
         <v>40</v>
@@ -1382,18 +1577,20 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="14"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L1" xr:uid="{F9F4CD79-3C21-4386-B9C9-BD01D2CF90B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:L39">
-      <sortCondition ref="G1"/>
+  <autoFilter ref="B1:M1" xr:uid="{F9F4CD79-3C21-4386-B9C9-BD01D2CF90B3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M38">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{1AADC889-FCAC-425A-ACD3-04D7A01E6214}"/>
-    <hyperlink ref="E11" r:id="rId2" location="composicaodacarteira" xr:uid="{146A5066-CF64-4FAB-BC1E-9A497432799C}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{1AADC889-FCAC-425A-ACD3-04D7A01E6214}"/>
+    <hyperlink ref="E12" r:id="rId2" location="composicaodacarteira" xr:uid="{146A5066-CF64-4FAB-BC1E-9A497432799C}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{D791C84B-DD9B-496A-9B99-BCC7A3BA7C83}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Quote_History_BB/#LISTA_FUNDOS.xlsx
+++ b/Quote_History_BB/#LISTA_FUNDOS.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Trend_Fundos_BB\Quote_History_BB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Outros computadores\Meu laptop\GITHUB\Trend_Fundos_BB\Quote_History_BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B11E5D-E329-4DE4-9550-6D182483B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{1381F4EF-6E41-4314-B5A2-4DD27EF1CF31}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="15555" windowHeight="18570"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$B$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>BB Ações Setor Financeiro</t>
   </si>
@@ -289,12 +288,72 @@
   </si>
   <si>
     <t>Day_bank</t>
+  </si>
+  <si>
+    <t>Este fundo busca por meio de um único investimento acessar uma carteira com ampla diversificação em gestores e estratégias no mercado de fundos brasileiro.</t>
+  </si>
+  <si>
+    <t>BB Ações ASG Brasil</t>
+  </si>
+  <si>
+    <t>BB Ações Equidade IS</t>
+  </si>
+  <si>
+    <t>BB Ações Sustentabilidade</t>
+  </si>
+  <si>
+    <t>BB Ações Retorno Total FIC FI</t>
+  </si>
+  <si>
+    <t>BB Ações BRL Global X Superdividendos BDR ETF N I</t>
+  </si>
+  <si>
+    <t>BB Renda Fixa Dívida Externa Mil</t>
+  </si>
+  <si>
+    <t>BB Multimercado ASG</t>
+  </si>
+  <si>
+    <t>BB Multimercado Global Vita Private</t>
+  </si>
+  <si>
+    <t>BB Multimercado Global Dividends Private</t>
+  </si>
+  <si>
+    <t>BB Multimercado Global Innovation Private</t>
+  </si>
+  <si>
+    <t>BB Ações BRL Universal Brands IE Private</t>
+  </si>
+  <si>
+    <t>BB Renda Fixa LP BRL Bonds Brasileiros IE</t>
+  </si>
+  <si>
+    <t>BB Multimercado BRL Pimco Income IE</t>
+  </si>
+  <si>
+    <t>BB Renda Fixa LP BRL Bonds Globais IE Private</t>
+  </si>
+  <si>
+    <t>BB Ações BRL Equities Invest Exterior Private</t>
+  </si>
+  <si>
+    <t>BB Acoes Sustentabilidade</t>
+  </si>
+  <si>
+    <t>BB Acoes Equidade IS</t>
+  </si>
+  <si>
+    <t>BB Acoes ASG Brasil</t>
+  </si>
+  <si>
+    <t>BB Acoes Petrobras I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,26 +783,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F4CD79-3C21-4386-B9C9-BD01D2CF90B3}">
-  <dimension ref="A1:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" style="18" customWidth="1"/>
-    <col min="4" max="5" width="13.44140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="16.6640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="18" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="16.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
@@ -784,7 +843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>11</v>
@@ -817,7 +876,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
@@ -838,7 +897,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>38</v>
@@ -859,20 +918,18 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="15"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -880,19 +937,19 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="15"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -901,16 +958,16 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>70</v>
+      <c r="F7" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>17</v>
@@ -922,19 +979,19 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
-        <v>28</v>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>71</v>
+      <c r="F8" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -943,19 +1000,19 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>18</v>
+      <c r="F9" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -964,18 +1021,20 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
-        <v>47</v>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -983,74 +1042,56 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
       <c r="F11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>5</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1058,81 +1099,83 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
-        <v>6</v>
+      <c r="B17" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>78</v>
+      <c r="F17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>15</v>
@@ -1144,60 +1187,64 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="6"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1205,15 +1252,17 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1222,19 +1271,19 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1243,19 +1292,19 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
-        <v>0</v>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>75</v>
+      <c r="F23" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1264,19 +1313,19 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>80</v>
+      <c r="F24" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1285,45 +1334,37 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -1331,43 +1372,33 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="K27" s="6"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>21</v>
@@ -1379,16 +1410,16 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>17</v>
@@ -1400,16 +1431,16 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>17</v>
@@ -1421,41 +1452,43 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="14" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="14"/>
+      <c r="L31" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="15"/>
       <c r="E32" s="14"/>
       <c r="F32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -1463,19 +1496,19 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="15"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1484,40 +1517,46 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="15"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1526,19 +1565,19 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="11" t="s">
-        <v>22</v>
+      <c r="B36" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="15" t="s">
-        <v>22</v>
+      <c r="F36" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -1547,10 +1586,10 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="11" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="15"/>
@@ -1564,10 +1603,10 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="15"/>
@@ -1581,16 +1620,324 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="K46" s="6">
+        <v>4</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:M1" xr:uid="{F9F4CD79-3C21-4386-B9C9-BD01D2CF90B3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M38">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="A1:M54">
+    <sortState ref="A2:M54">
+      <sortCondition ref="B1:B54"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{1AADC889-FCAC-425A-ACD3-04D7A01E6214}"/>
-    <hyperlink ref="E12" r:id="rId2" location="composicaodacarteira" xr:uid="{146A5066-CF64-4FAB-BC1E-9A497432799C}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{D791C84B-DD9B-496A-9B99-BCC7A3BA7C83}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2" location="composicaodacarteira"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Quote_History_BB/#LISTA_FUNDOS.xlsx
+++ b/Quote_History_BB/#LISTA_FUNDOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Trend_Fundos_BB\Quote_History_BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D053055-FBEB-47B8-A38F-72BD8CF51282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD0291-0CD8-4AE7-B576-CC21E885BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="303">
   <si>
     <t>BB Ações Setor Financeiro</t>
   </si>
@@ -738,9 +738,6 @@
     <t>BB Ações Games BDR Nível I</t>
   </si>
   <si>
-    <t>https://bb.com.br/uci/fundos.html?gfi=1846&amp;tipo=pf</t>
-  </si>
-  <si>
     <t>Compor uma carteira de ativos financeiros direcionada, preferencialmente, por ativos de renda variável que reflitam a estratégia de SuperDividends, gerida pela Global X</t>
   </si>
   <si>
@@ -904,6 +901,42 @@
   </si>
   <si>
     <t>06.349.816/0001-01</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=25&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>01.578.474/0001-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O BB Ações Tecnologia BDR Nível I é um fundo temático, que investe em companhias brasileira e estrangeiras dos setores de tecnologia. Tais investimentos ocorrem em empresas dos mais diversos setores econômicos, desde que estas sejam intensivas em tecnologia. </t>
+  </si>
+  <si>
+    <t>O BB Ações US Biotech BDR Nível I é um fundo temático com portfólio de empresas globais, inovadoras pertencentes aos setores de biotecnologia, farmacêutico ou do setor da saúde que possuem elevados investimentos em pesquisa desenvolvimento. O fundo possui proteção cambial, ou seja, a rentabilidade é decorrente do retorno das ações selecionadas para compor a carteira, não sofrendo o impacto do câmbio.</t>
+  </si>
+  <si>
+    <t>38.110.562/0001-60</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=1763&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=504&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>Este fundo busca agregar rentabilidade aos recursos através de operações que acompanhem a variação do Euro. Para isso, investe em cotas de fundos de investimento, cuja carteira seja composta por: títulos públicos, ativos financeiros negociados no exterior, operações compromissadas lastreadas em títulos públicos federais, títulos de emissão privada, etc.</t>
+  </si>
+  <si>
+    <t>04.305.193/0001-40</t>
+  </si>
+  <si>
+    <t>40.021.803/0001-47</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=1846</t>
+  </si>
+  <si>
+    <t>08.080.680/0001-02</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1432,10 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1486,7 @@
         <v>222</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>100</v>
@@ -2110,7 +2143,7 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>203</v>
@@ -2157,10 +2190,10 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -2204,7 +2237,7 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>209</v>
@@ -2580,7 +2613,9 @@
       <c r="B22" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -2595,7 +2630,7 @@
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="22" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="L22" s="18">
         <v>1</v>
@@ -2622,14 +2657,14 @@
         <v>6</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" s="18">
         <v>5</v>
@@ -2642,7 +2677,7 @@
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L23" s="18">
         <v>1</v>
@@ -2677,14 +2712,14 @@
         <v>33</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="18">
         <v>5</v>
@@ -2697,7 +2732,7 @@
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L24" s="18">
         <v>1</v>
@@ -2732,14 +2767,14 @@
         <v>39</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="18">
         <v>5</v>
@@ -2752,7 +2787,7 @@
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L25" s="18">
         <v>1</v>
@@ -2787,14 +2822,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G26" s="18">
         <v>5</v>
@@ -2807,7 +2842,7 @@
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L26" s="18">
         <v>1</v>
@@ -2840,14 +2875,14 @@
         <v>27</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G27" s="18">
         <v>5</v>
@@ -2860,7 +2895,7 @@
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L27" s="18">
         <v>0</v>
@@ -2893,14 +2928,14 @@
         <v>84</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G28" s="18">
         <v>5</v>
@@ -2913,7 +2948,7 @@
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L28" s="18">
         <v>1</v>
@@ -2940,14 +2975,14 @@
         <v>12</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29" s="18">
         <v>5</v>
@@ -2960,7 +2995,7 @@
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L29" s="18">
         <v>1</v>
@@ -2995,14 +3030,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G30" s="18">
         <v>5</v>
@@ -3015,7 +3050,7 @@
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L30" s="18">
         <v>1</v>
@@ -3050,14 +3085,14 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" s="18">
         <v>5</v>
@@ -3070,7 +3105,7 @@
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" s="18">
         <v>1</v>
@@ -3105,14 +3140,14 @@
         <v>3</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G32" s="18">
         <v>5</v>
@@ -3127,7 +3162,7 @@
         <v>49</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L32" s="18">
         <v>1</v>
@@ -3164,14 +3199,14 @@
         <v>83</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
         <v>96</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G33" s="18">
         <v>5</v>
@@ -3184,7 +3219,7 @@
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L33" s="18">
         <v>1</v>
@@ -3209,29 +3244,45 @@
       </c>
       <c r="U33" s="25"/>
     </row>
-    <row r="34" spans="1:21" s="21" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
+      <c r="F34" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="I34" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="K34" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34" s="18">
+        <v>3</v>
+      </c>
       <c r="O34" s="18"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -3248,35 +3299,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="21" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="21" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>295</v>
+      </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>294</v>
+      </c>
       <c r="G35" s="18">
         <v>5</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="I35" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="K35" s="22" t="s">
+        <v>296</v>
+      </c>
       <c r="L35" s="18">
         <v>1</v>
       </c>
       <c r="M35" s="18">
         <v>1</v>
       </c>
-      <c r="N35" s="18"/>
+      <c r="N35" s="18">
+        <v>3</v>
+      </c>
       <c r="O35" s="18"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -3350,29 +3411,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>299</v>
+      </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="23"/>
+      <c r="F37" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="18">
+        <v>5</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="I37" s="18" t="s">
         <v>105</v>
       </c>
       <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="K37" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
       <c r="O37" s="18"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -3680,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="13" t="s">
@@ -3700,7 +3777,7 @@
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
@@ -3772,25 +3849,25 @@
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G49" s="4">
         <v>5</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>105</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" s="4">
         <v>1</v>
@@ -3817,12 +3894,12 @@
         <v>92</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -3835,7 +3912,7 @@
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
@@ -3862,12 +3939,12 @@
         <v>94</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G51" s="4">
         <v>3</v>
@@ -3880,7 +3957,7 @@
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L51" s="4">
         <v>1</v>
@@ -3907,14 +3984,14 @@
         <v>22</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G52" s="4">
         <v>2</v>
@@ -3927,7 +4004,7 @@
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -3961,7 +4038,9 @@
       <c r="B53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>302</v>
+      </c>
       <c r="D53" s="9"/>
       <c r="E53" s="13" t="s">
         <v>23</v>
@@ -4001,7 +4080,7 @@
     </row>
     <row r="54" spans="1:21" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>40</v>
@@ -4116,6 +4195,9 @@
     <hyperlink ref="K31" r:id="rId42" xr:uid="{C07B4734-2D5D-46BE-8ECC-DAC1952E914D}"/>
     <hyperlink ref="K32" r:id="rId43" xr:uid="{2C04A4E9-864A-454A-B002-050C5A59B11F}"/>
     <hyperlink ref="K33" r:id="rId44" xr:uid="{0A5D9B41-C2D4-454E-94AD-2B04A2CA403C}"/>
+    <hyperlink ref="K34" r:id="rId45" xr:uid="{2AC42EB6-31A0-4FFB-A07F-EF34FB769A95}"/>
+    <hyperlink ref="K35" r:id="rId46" xr:uid="{33E2673B-1435-4D3A-91A9-85C72E4B2FB9}"/>
+    <hyperlink ref="K37" r:id="rId47" xr:uid="{D3027F1C-7002-4E2F-ACBC-E3356AD1AD51}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Quote_History_BB/#LISTA_FUNDOS.xlsx
+++ b/Quote_History_BB/#LISTA_FUNDOS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Trend_Fundos_BB\Quote_History_BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD0291-0CD8-4AE7-B576-CC21E885BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D83AD2-C4FA-4692-9C59-F39797881907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Planilha1!$A$1:$U$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Planilha1!$A$1:$T$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="285">
   <si>
     <t>BB Ações Setor Financeiro</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ruim</t>
   </si>
   <si>
-    <t>BB Acoes Bolsas Asiaticas</t>
-  </si>
-  <si>
     <t>Ruim</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Muito Bom</t>
   </si>
   <si>
-    <t>Nome_Arquivo</t>
-  </si>
-  <si>
     <t>Aportes_Trend</t>
   </si>
   <si>
@@ -183,12 +177,6 @@
     <t>Link_CVM</t>
   </si>
   <si>
-    <t>BB Acoes Small Caps</t>
-  </si>
-  <si>
-    <t>BB Acoes Construcao Civil FIC FI</t>
-  </si>
-  <si>
     <t>https://www.bb.com.br/uci/informe-mensal.html?gfi=675&amp;tipo=pf#composicaodacarteira</t>
   </si>
   <si>
@@ -198,72 +186,6 @@
     <t>Link_BB_INFO</t>
   </si>
   <si>
-    <t>BB Acoes Agro</t>
-  </si>
-  <si>
-    <t>BB Acoes BB</t>
-  </si>
-  <si>
-    <t>BB Acoes Dividendos</t>
-  </si>
-  <si>
-    <t>BB Acoes Energia</t>
-  </si>
-  <si>
-    <t>BB Acoes Governança</t>
-  </si>
-  <si>
-    <t>BB Acoes Infraestrutura</t>
-  </si>
-  <si>
-    <t>BB Acoes Alocacao ETF</t>
-  </si>
-  <si>
-    <t>BB Acoes Alocacao</t>
-  </si>
-  <si>
-    <t>BB Acoes Bolsa Americana</t>
-  </si>
-  <si>
-    <t>BB Acoes Bolsa Brasileira</t>
-  </si>
-  <si>
-    <t>BB Acoes Consumo FIC FI</t>
-  </si>
-  <si>
-    <t>BB Acoes Dividendos Midcaps FIC FI</t>
-  </si>
-  <si>
-    <t>BB Acoes Ibovespa Ativo</t>
-  </si>
-  <si>
-    <t>BB Acoes Setor Financeiro</t>
-  </si>
-  <si>
-    <t>BB Acoes Bolsas Europeias</t>
-  </si>
-  <si>
-    <t>BB Acoes Bolsas Globais Ativo</t>
-  </si>
-  <si>
-    <t>BB Acoes Exportacao</t>
-  </si>
-  <si>
-    <t>BB Acoes Selecao Fatorial</t>
-  </si>
-  <si>
-    <t>BB Acos Siderurgia</t>
-  </si>
-  <si>
-    <t>BB Acoes Tecnologia BDR</t>
-  </si>
-  <si>
-    <t>BB Acoes US Biotech</t>
-  </si>
-  <si>
-    <t>BB Multimercado Dinamico</t>
-  </si>
-  <si>
     <t>https://www.bb.com.br/uci/informe-mensal.html?gfi=1834&amp;tipo=pf</t>
   </si>
   <si>
@@ -318,18 +240,6 @@
     <t>BB Ações BRL Equities Invest Exterior Private</t>
   </si>
   <si>
-    <t>BB Acoes Sustentabilidade</t>
-  </si>
-  <si>
-    <t>BB Acoes Equidade IS</t>
-  </si>
-  <si>
-    <t>BB Acoes ASG Brasil</t>
-  </si>
-  <si>
-    <t>BB Acoes Petrobras I</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -789,18 +699,6 @@
     <t>TAXATION</t>
   </si>
   <si>
-    <t>BB Acoes BRL Equities Invest Exterior Private</t>
-  </si>
-  <si>
-    <t>BB Acoes BRL Global X Superdividendos BDR ETF N I</t>
-  </si>
-  <si>
-    <t>BB Acoes BRL Universal Brands IE Private</t>
-  </si>
-  <si>
-    <t>BB Acoess Retorno Total FIC FI</t>
-  </si>
-  <si>
     <t>BB-0053</t>
   </si>
   <si>
@@ -937,13 +835,61 @@
   </si>
   <si>
     <t>08.080.680/0001-02</t>
+  </si>
+  <si>
+    <t>Busca uma exposição balanceada em ativos de Renda Fixa e ativos de Renda Variável, direcionada ao mercado financeiro e de capitais nacional e internacional que adotem boas práticas quanto aos critérios ASG (Ambiental, Social e Governança)</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=723&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=168&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>06.015.368/0001-00</t>
+  </si>
+  <si>
+    <t>Este fundo busca superar o CDI, através da aplicação derecursos nos mercados de juros e moedas, sem exposição ao risco de ações. Para isso, conta com gestão ativa, utilizando-se de operações direcionais, onde se tenta antecipar a trajetória dos ativos, e operações estruturadas, como a compra ou venda de inflação implícita, que seria a diferença entre as taxas de juros nominal e real</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=153&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>Este fundo busca superar o CDI, mediante aplicação de seus recursos em diferentes mercados com estratégia de investimentos baseada em cenários macroeconômicos de médio e longo prazo. Para isso, poderá aplicar em carteira composta pelos seguintes ativos: títulos públicos federais, títulos privados, operações compromissadas, operações com derivativos, cotas de fundos de investimentos, cotas de FIDCs, cotas de FIIs, cotas de ETFs, ações emitidas por empresas brasileiras, bônus ou recibos de subscrição, BDRs (limitados a 50% da carteira) e ativos financeiros negociados no exterior.</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=1644&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem como estratégia principal uma carteira que possibilite acompanhar a valorização do ouro, livre de oscilação cambial, uma vez que o ouro é cotado em dólar, o fundo realiza a proteção da carteira em relação às variações da moeda americana. </t>
+  </si>
+  <si>
+    <t>39.354.724/0001-79</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=740&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem por objetivo compor uma carteira de ativos financeiros direcionada a ações de emissão de empresas dos setores de saúde, biotecnologia, nutrição e meio ambiente, entre outros relacionados à expectativa de vida saudável. </t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=769&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>investe em ativos vinculados aos mercados de juros, moedas e ações, buscando explorar oportunidades de investimento que possam capturar prêmios de curto prazo nestes mercados.</t>
+  </si>
+  <si>
+    <t>https://bb.com.br/uci/informe-mensal.html?gfi=1016&amp;tipo=pf</t>
+  </si>
+  <si>
+    <t>Iinveste 60% dos recursos em estratégias de renda fixa no Brasil. Com os 40% restantes, adquire ações de empresas internacionais consolidadas, que se destacam em relação ao pagamento de dividendos e que acompanham o índice S&amp;P 500 Dividend Aristocrats.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,8 +927,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,6 +952,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,6 +1073,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1429,1962 +1395,1858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="14" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="26.44140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="24.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.77734375" style="27" customWidth="1"/>
-    <col min="19" max="19" width="24.109375" style="27" customWidth="1"/>
-    <col min="20" max="20" width="31.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="26.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" style="27" customWidth="1"/>
+    <col min="18" max="18" width="24.109375" style="27" customWidth="1"/>
+    <col min="19" max="19" width="31.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.77734375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
+      <c r="Q1" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="R1" s="24" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>101</v>
+      <c r="G2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
         <v>2</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="25">
+        <v>1</v>
+      </c>
       <c r="R2" s="25">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="S2" s="25">
+        <v>4.16</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="25">
-        <v>4.16</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="11" t="s">
-        <v>172</v>
+      <c r="G3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>3</v>
-      </c>
-      <c r="O3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="25">
+        <v>1</v>
+      </c>
       <c r="R3" s="25">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="S3" s="25">
+        <v>14.61</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="25">
-        <v>14.61</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="4">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="11" t="s">
-        <v>177</v>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>3</v>
-      </c>
-      <c r="O4" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="25">
+        <v>3</v>
+      </c>
       <c r="R4" s="25">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S4" s="25">
-        <v>40</v>
-      </c>
-      <c r="T4" s="25">
         <v>19.14</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="T4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="4">
+        <v>149</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11" t="s">
-        <v>178</v>
+      <c r="G5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
         <v>2</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="25">
+        <v>3</v>
+      </c>
       <c r="R5" s="25">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="S5" s="25">
-        <v>34</v>
-      </c>
-      <c r="T5" s="25">
         <v>-7.85</v>
       </c>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="4">
+        <v>151</v>
+      </c>
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11" t="s">
-        <v>180</v>
+      <c r="G6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
         <v>2</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="25">
+        <v>1</v>
+      </c>
       <c r="R6" s="25">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S6" s="25">
-        <v>31</v>
-      </c>
-      <c r="T6" s="25">
         <v>25.5</v>
       </c>
-      <c r="U6" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="4">
+        <v>154</v>
+      </c>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
-        <v>185</v>
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
         <v>2</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="25">
+        <v>1</v>
+      </c>
       <c r="R7" s="25">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="S7" s="25">
-        <v>38</v>
-      </c>
-      <c r="T7" s="25">
         <v>23.42</v>
       </c>
-      <c r="U7" s="25" t="s">
+      <c r="T7" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11" t="s">
-        <v>187</v>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="25">
+        <v>3</v>
+      </c>
       <c r="R8" s="25">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S8" s="25">
-        <v>40</v>
-      </c>
-      <c r="T8" s="25">
         <v>15.91</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="T8" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="4">
+        <v>161</v>
+      </c>
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11" t="s">
-        <v>190</v>
+      <c r="G9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
       <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="25">
+        <v>1</v>
+      </c>
+      <c r="R9" s="25">
+        <v>36</v>
+      </c>
+      <c r="S9" s="25">
+        <v>11.9</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="25">
-        <v>1</v>
-      </c>
-      <c r="S9" s="25">
-        <v>36</v>
-      </c>
-      <c r="T9" s="25">
-        <v>11.9</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="25">
+        <v>3</v>
+      </c>
       <c r="R10" s="25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S10" s="25">
-        <v>9</v>
-      </c>
-      <c r="T10" s="25">
         <v>-1.02</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="T10" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="4">
+        <v>168</v>
+      </c>
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="11" t="s">
-        <v>197</v>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="25">
+        <v>1</v>
+      </c>
       <c r="R11" s="25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S11" s="25">
-        <v>11</v>
-      </c>
-      <c r="T11" s="25">
         <v>18.61</v>
       </c>
-      <c r="U11" s="25"/>
-    </row>
-    <row r="12" spans="1:21" s="21" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22" t="s">
-        <v>202</v>
+      <c r="I12" s="19"/>
+      <c r="J12" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
       </c>
       <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
         <v>2</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="26">
-        <v>1</v>
+      <c r="Q12" s="26">
+        <v>1</v>
+      </c>
+      <c r="R12" s="25">
+        <v>11</v>
       </c>
       <c r="S12" s="25">
-        <v>11</v>
-      </c>
-      <c r="T12" s="25">
-        <v>3</v>
-      </c>
-      <c r="U12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="18">
+        <v>173</v>
+      </c>
+      <c r="F13" s="18">
         <v>4</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="22" t="s">
-        <v>205</v>
+      <c r="G13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
       </c>
       <c r="L13" s="18">
         <v>1</v>
       </c>
       <c r="M13" s="18">
-        <v>1</v>
-      </c>
-      <c r="N13" s="18">
         <v>6</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-    </row>
-    <row r="14" spans="1:21" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="4">
+        <v>206</v>
+      </c>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="22" t="s">
-        <v>207</v>
+      <c r="G14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
       </c>
       <c r="L14" s="18">
         <v>1</v>
       </c>
       <c r="M14" s="18">
-        <v>1</v>
-      </c>
-      <c r="N14" s="18">
-        <v>3</v>
-      </c>
-      <c r="O14" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-    </row>
-    <row r="15" spans="1:21" s="21" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="18">
+        <v>179</v>
+      </c>
+      <c r="F15" s="18">
         <v>4</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="22" t="s">
-        <v>208</v>
+      <c r="G15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
       </c>
       <c r="L15" s="18">
         <v>1</v>
       </c>
       <c r="M15" s="18">
-        <v>1</v>
-      </c>
-      <c r="N15" s="18">
         <v>6</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-    </row>
-    <row r="16" spans="1:21" s="21" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="18">
+        <v>50</v>
+      </c>
+      <c r="F16" s="18">
         <v>5</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>101</v>
+      <c r="G16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
       </c>
       <c r="L16" s="18">
         <v>1</v>
       </c>
       <c r="M16" s="18">
-        <v>1</v>
-      </c>
-      <c r="N16" s="18">
-        <v>3</v>
-      </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="25">
+        <v>3</v>
+      </c>
       <c r="R16" s="25">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="S16" s="25">
-        <v>24</v>
-      </c>
-      <c r="T16" s="25">
         <v>38.97</v>
       </c>
-      <c r="U16" s="25" t="s">
+      <c r="T16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="21" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="4">
+        <v>182</v>
+      </c>
+      <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="22" t="s">
-        <v>211</v>
+      <c r="G17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
       </c>
       <c r="L17" s="18">
         <v>1</v>
       </c>
       <c r="M17" s="18">
-        <v>1</v>
-      </c>
-      <c r="N17" s="18">
-        <v>3</v>
-      </c>
-      <c r="O17" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="25">
+        <v>3</v>
+      </c>
       <c r="R17" s="25">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S17" s="25">
-        <v>38</v>
-      </c>
-      <c r="T17" s="25">
         <v>22.49</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="T17" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="21" customFormat="1" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="18">
+        <v>185</v>
+      </c>
+      <c r="F18" s="18">
         <v>5</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="22" t="s">
-        <v>214</v>
+      <c r="G18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
       </c>
       <c r="L18" s="20">
         <v>0</v>
       </c>
       <c r="M18" s="20">
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
         <v>2</v>
       </c>
-      <c r="O18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="26">
-        <v>3</v>
+      <c r="Q18" s="26">
+        <v>3</v>
+      </c>
+      <c r="R18" s="25">
+        <v>21</v>
       </c>
       <c r="S18" s="25">
-        <v>21</v>
-      </c>
-      <c r="T18" s="25">
         <v>18.14</v>
       </c>
-      <c r="U18" s="26" t="s">
+      <c r="T18" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="18">
+        <v>195</v>
+      </c>
+      <c r="F19" s="18">
         <v>5</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="22" t="s">
-        <v>223</v>
+      <c r="G19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
       </c>
       <c r="L19" s="18">
         <v>0</v>
       </c>
       <c r="M19" s="18">
-        <v>0</v>
-      </c>
-      <c r="N19" s="18">
-        <v>3</v>
-      </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="25">
+        <v>1</v>
+      </c>
       <c r="R19" s="25">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="S19" s="25">
-        <v>23</v>
-      </c>
-      <c r="T19" s="25">
         <v>18.36</v>
       </c>
-      <c r="U19" s="25" t="s">
+      <c r="T19" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="E20" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="18">
         <v>5</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="22" t="s">
-        <v>228</v>
+      <c r="G20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
       </c>
       <c r="L20" s="18">
         <v>1</v>
       </c>
       <c r="M20" s="18">
-        <v>1</v>
-      </c>
-      <c r="N20" s="18">
-        <v>3</v>
-      </c>
-      <c r="O20" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
       <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="Q20" s="25">
+        <v>1</v>
+      </c>
       <c r="R20" s="25">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="S20" s="25">
-        <v>25</v>
-      </c>
-      <c r="T20" s="25">
         <v>12.82</v>
       </c>
-      <c r="U20" s="25" t="s">
+      <c r="T20" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="21" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="18">
+        <v>199</v>
+      </c>
+      <c r="F21" s="18">
         <v>5</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1</v>
+      </c>
+      <c r="M21" s="18">
+        <v>3</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="25">
+        <v>1</v>
+      </c>
+      <c r="R21" s="25">
+        <v>38</v>
+      </c>
+      <c r="S21" s="25">
+        <v>24.18</v>
+      </c>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="18">
-        <v>1</v>
-      </c>
-      <c r="M21" s="18">
-        <v>1</v>
-      </c>
-      <c r="N21" s="18">
-        <v>3</v>
-      </c>
-      <c r="O21" s="18"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="25">
-        <v>1</v>
-      </c>
-      <c r="S21" s="25">
-        <v>38</v>
-      </c>
-      <c r="T21" s="25">
-        <v>24.18</v>
-      </c>
-      <c r="U21" s="25"/>
-    </row>
-    <row r="22" spans="1:21" s="21" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="B22" s="16" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18">
+      <c r="F22" s="18">
         <v>5</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="22" t="s">
-        <v>301</v>
+      <c r="G22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1</v>
       </c>
       <c r="L22" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="18">
-        <v>4</v>
-      </c>
-      <c r="N22" s="18">
         <v>6</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-    </row>
-    <row r="23" spans="1:21" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="E23" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="18">
         <v>5</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="22" t="s">
-        <v>258</v>
+      <c r="G23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
       </c>
       <c r="L23" s="18">
         <v>1</v>
       </c>
       <c r="M23" s="18">
-        <v>1</v>
-      </c>
-      <c r="N23" s="18">
-        <v>3</v>
-      </c>
-      <c r="O23" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="25">
+        <v>3</v>
+      </c>
       <c r="R23" s="25">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="S23" s="25">
-        <v>37</v>
-      </c>
-      <c r="T23" s="25">
         <v>20.88</v>
       </c>
-      <c r="U23" s="25" t="s">
+      <c r="T23" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="18">
+        <v>228</v>
+      </c>
+      <c r="F24" s="18">
         <v>5</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="22" t="s">
-        <v>261</v>
+      <c r="G24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1</v>
       </c>
       <c r="L24" s="18">
         <v>1</v>
       </c>
       <c r="M24" s="18">
-        <v>1</v>
-      </c>
-      <c r="N24" s="18">
-        <v>3</v>
-      </c>
-      <c r="O24" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="25">
+        <v>3</v>
+      </c>
       <c r="R24" s="25">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="S24" s="25">
-        <v>40</v>
-      </c>
-      <c r="T24" s="25">
         <v>20.76</v>
       </c>
-      <c r="U24" s="25" t="s">
+      <c r="T24" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="18">
+        <v>231</v>
+      </c>
+      <c r="F25" s="18">
         <v>5</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="22" t="s">
-        <v>264</v>
+      <c r="G25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
       </c>
       <c r="L25" s="18">
         <v>1</v>
       </c>
       <c r="M25" s="18">
-        <v>1</v>
-      </c>
-      <c r="N25" s="18">
-        <v>3</v>
-      </c>
-      <c r="O25" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="25">
+        <v>3</v>
+      </c>
       <c r="R25" s="25">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="S25" s="25">
-        <v>31</v>
-      </c>
-      <c r="T25" s="25">
         <v>16.18</v>
       </c>
-      <c r="U25" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="T25" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="E26" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="18">
         <v>5</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="22" t="s">
-        <v>266</v>
+      <c r="G26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
       </c>
       <c r="L26" s="18">
         <v>1</v>
       </c>
       <c r="M26" s="18">
-        <v>1</v>
-      </c>
-      <c r="N26" s="18">
-        <v>3</v>
-      </c>
-      <c r="O26" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="25">
+        <v>3</v>
+      </c>
       <c r="R26" s="25">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="S26" s="25">
-        <v>34</v>
-      </c>
-      <c r="T26" s="25">
         <v>18.75</v>
       </c>
-      <c r="U26" s="25"/>
-    </row>
-    <row r="27" spans="1:21" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" s="18">
+        <v>237</v>
+      </c>
+      <c r="F27" s="18">
         <v>5</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="22" t="s">
-        <v>270</v>
+      <c r="G27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
       </c>
       <c r="L27" s="18">
         <v>0</v>
       </c>
       <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="18">
         <v>2</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="25">
+        <v>3</v>
+      </c>
       <c r="R27" s="25">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S27" s="25">
-        <v>22</v>
-      </c>
-      <c r="T27" s="25">
         <v>35.020000000000003</v>
       </c>
-      <c r="U27" s="25"/>
-    </row>
-    <row r="28" spans="1:21" s="21" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="18">
+        <v>240</v>
+      </c>
+      <c r="F28" s="18">
         <v>5</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="22" t="s">
-        <v>273</v>
+      <c r="G28" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
       </c>
       <c r="L28" s="18">
         <v>1</v>
       </c>
       <c r="M28" s="18">
-        <v>1</v>
-      </c>
-      <c r="N28" s="18">
-        <v>3</v>
-      </c>
-      <c r="O28" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-    </row>
-    <row r="29" spans="1:21" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D29" s="23"/>
-      <c r="E29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="E29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="18">
         <v>5</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="22" t="s">
-        <v>276</v>
+      <c r="G29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
       </c>
       <c r="L29" s="18">
         <v>1</v>
       </c>
       <c r="M29" s="18">
-        <v>1</v>
-      </c>
-      <c r="N29" s="18">
-        <v>3</v>
-      </c>
-      <c r="O29" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="25">
+        <v>3</v>
+      </c>
       <c r="R29" s="25">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="S29" s="25">
-        <v>35</v>
-      </c>
-      <c r="T29" s="25">
         <v>23.91</v>
       </c>
-      <c r="U29" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="T29" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="E30" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="18">
         <v>5</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="22" t="s">
-        <v>279</v>
+      <c r="G30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1</v>
       </c>
       <c r="L30" s="18">
         <v>1</v>
       </c>
       <c r="M30" s="18">
-        <v>1</v>
-      </c>
-      <c r="N30" s="18">
-        <v>3</v>
-      </c>
-      <c r="O30" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="25">
+        <v>1</v>
+      </c>
       <c r="R30" s="25">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="S30" s="25">
-        <v>23</v>
-      </c>
-      <c r="T30" s="25">
         <v>17.329999999999998</v>
       </c>
-      <c r="U30" s="25" t="s">
+      <c r="T30" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D31" s="23"/>
-      <c r="E31" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="E31" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="18">
         <v>5</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="22" t="s">
-        <v>282</v>
+      <c r="G31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
       </c>
       <c r="L31" s="18">
         <v>1</v>
       </c>
       <c r="M31" s="18">
-        <v>1</v>
-      </c>
-      <c r="N31" s="18">
-        <v>3</v>
-      </c>
-      <c r="O31" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="Q31" s="25">
+        <v>3</v>
+      </c>
       <c r="R31" s="25">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="S31" s="25">
-        <v>35</v>
-      </c>
-      <c r="T31" s="25">
         <v>25.99</v>
       </c>
-      <c r="U31" s="25" t="s">
+      <c r="T31" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="D32" s="23"/>
-      <c r="E32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="E32" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="18">
         <v>5</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>101</v>
+      <c r="G32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>287</v>
+        <v>253</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1</v>
       </c>
       <c r="L32" s="18">
         <v>1</v>
       </c>
       <c r="M32" s="18">
-        <v>1</v>
-      </c>
-      <c r="N32" s="18">
-        <v>3</v>
-      </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="25">
+        <v>3</v>
+      </c>
+      <c r="R32" s="25">
+        <v>33</v>
+      </c>
+      <c r="S32" s="25">
+        <v>48.31</v>
+      </c>
+      <c r="T32" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="25">
-        <v>3</v>
-      </c>
-      <c r="S32" s="25">
-        <v>33</v>
-      </c>
-      <c r="T32" s="25">
-        <v>48.31</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="G33" s="18">
+        <v>255</v>
+      </c>
+      <c r="F33" s="18">
         <v>5</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="22" t="s">
-        <v>288</v>
+      <c r="G33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1</v>
       </c>
       <c r="L33" s="18">
         <v>1</v>
       </c>
       <c r="M33" s="18">
-        <v>1</v>
-      </c>
-      <c r="N33" s="18">
-        <v>3</v>
-      </c>
-      <c r="O33" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
+      <c r="Q33" s="25">
+        <v>3</v>
+      </c>
       <c r="R33" s="25">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S33" s="25">
-        <v>38</v>
-      </c>
-      <c r="T33" s="25">
         <v>26.19</v>
       </c>
-      <c r="U33" s="25"/>
-    </row>
-    <row r="34" spans="1:21" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="G34" s="18">
+        <v>259</v>
+      </c>
+      <c r="F34" s="18">
         <v>5</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="22" t="s">
-        <v>291</v>
+      <c r="G34" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1</v>
       </c>
       <c r="L34" s="18">
         <v>1</v>
       </c>
       <c r="M34" s="18">
-        <v>1</v>
-      </c>
-      <c r="N34" s="18">
-        <v>3</v>
-      </c>
-      <c r="O34" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="Q34" s="25">
+        <v>1</v>
+      </c>
       <c r="R34" s="25">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S34" s="25">
-        <v>31</v>
-      </c>
-      <c r="T34" s="25">
         <v>11.7</v>
       </c>
-      <c r="U34" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="21" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T34" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="18">
+        <v>5</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>3</v>
+      </c>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="25">
+        <v>1</v>
+      </c>
+      <c r="R35" s="25">
+        <v>24</v>
+      </c>
+      <c r="S35" s="25">
+        <v>17.3</v>
+      </c>
+      <c r="T35" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G35" s="18">
+      <c r="F36" s="18">
         <v>5</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="L35" s="18">
-        <v>1</v>
-      </c>
-      <c r="M35" s="18">
-        <v>1</v>
-      </c>
-      <c r="N35" s="18">
-        <v>3</v>
-      </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="25">
-        <v>1</v>
-      </c>
-      <c r="S35" s="25">
-        <v>24</v>
-      </c>
-      <c r="T35" s="25">
-        <v>17.3</v>
-      </c>
-      <c r="U35" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="18">
-        <v>5</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>105</v>
+      <c r="G36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -3392,54 +3254,51 @@
       <c r="M36" s="18">
         <v>0</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="18"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="25">
+        <v>3</v>
+      </c>
+      <c r="R36" s="25">
+        <v>20</v>
+      </c>
+      <c r="S36" s="25">
+        <v>32.9</v>
+      </c>
+      <c r="T36" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="18">
+        <v>5</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="18">
         <v>0</v>
-      </c>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="25">
-        <v>3</v>
-      </c>
-      <c r="S36" s="25">
-        <v>20</v>
-      </c>
-      <c r="T36" s="25">
-        <v>32.9</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G37" s="18">
-        <v>5</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="L37" s="18">
         <v>0</v>
@@ -3447,564 +3306,653 @@
       <c r="M37" s="18">
         <v>0</v>
       </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
+      <c r="Q37" s="25">
+        <v>1</v>
+      </c>
       <c r="R37" s="25">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S37" s="25">
-        <v>31</v>
-      </c>
-      <c r="T37" s="25">
         <v>5.31</v>
       </c>
-      <c r="U37" s="25" t="s">
+      <c r="T37" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="E38" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1</v>
+      </c>
+      <c r="M38" s="18">
+        <v>4</v>
+      </c>
       <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-    </row>
-    <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q38" s="29">
+        <v>3</v>
+      </c>
+      <c r="R38" s="30">
+        <v>15</v>
+      </c>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
       <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="4"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
+      <c r="Q40" s="25">
+        <v>1</v>
+      </c>
       <c r="R40" s="25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S40" s="25">
-        <v>9</v>
-      </c>
-      <c r="T40" s="25">
         <v>12.67</v>
       </c>
-      <c r="U40" s="25" t="s">
+      <c r="T40" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="E41" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
+      <c r="Q41" s="25">
+        <v>1</v>
+      </c>
       <c r="R41" s="25">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="S41" s="25">
-        <v>39</v>
-      </c>
-      <c r="T41" s="25">
         <v>7.96</v>
       </c>
-      <c r="U41" s="25" t="s">
+      <c r="T41" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="E42" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>5</v>
+      </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-    </row>
-    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
+      <c r="O43" s="12"/>
       <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:20" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="E44" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>5</v>
+      </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
+      <c r="O44" s="12"/>
       <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>1</v>
+      </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="O45" s="12"/>
       <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
+      <c r="Q45" s="25">
+        <v>1</v>
+      </c>
       <c r="R45" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S45" s="25">
-        <v>15</v>
-      </c>
-      <c r="T45" s="25">
         <v>8.56</v>
       </c>
-      <c r="U45" s="25" t="s">
+      <c r="T45" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="25">
+        <v>3</v>
+      </c>
+      <c r="R46" s="25">
+        <v>13</v>
+      </c>
+      <c r="S46" s="25">
+        <v>11.43</v>
+      </c>
+      <c r="T46" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="25">
-        <v>3</v>
-      </c>
-      <c r="S46" s="25">
-        <v>13</v>
-      </c>
-      <c r="T46" s="25">
-        <v>11.43</v>
-      </c>
-      <c r="U46" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="C47" s="9" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="4">
+        <v>54</v>
+      </c>
+      <c r="F47" s="4">
         <v>4</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="11" t="s">
-        <v>251</v>
+      <c r="G47" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
       </c>
       <c r="M47" s="4">
-        <v>0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
+      <c r="Q47" s="25">
+        <v>1</v>
+      </c>
       <c r="R47" s="25">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="S47" s="25">
-        <v>39</v>
-      </c>
-      <c r="T47" s="25">
         <v>7.6</v>
       </c>
-      <c r="U47" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T47" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="E48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4</v>
+      </c>
       <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
+      <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="Q48" s="25">
+        <v>1</v>
+      </c>
       <c r="R48" s="25">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S48" s="25">
+        <v>8.1</v>
+      </c>
+      <c r="T48" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="T48" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="U48" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="E49" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="4">
         <v>5</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="11" t="s">
-        <v>246</v>
+      <c r="G49" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
       </c>
       <c r="L49" s="4">
         <v>1</v>
       </c>
       <c r="M49" s="4">
-        <v>1</v>
-      </c>
-      <c r="N49" s="4">
         <v>4</v>
       </c>
-      <c r="O49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
+      <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-    </row>
-    <row r="50" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G50" s="4">
-        <v>3</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="11" t="s">
-        <v>239</v>
+      <c r="E50" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
       </c>
       <c r="L50" s="4">
         <v>1</v>
       </c>
       <c r="M50" s="4">
-        <v>1</v>
-      </c>
-      <c r="N50" s="4">
         <v>6</v>
       </c>
-      <c r="O50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
-      <c r="U50" s="25"/>
-    </row>
-    <row r="51" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G51" s="4">
-        <v>3</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="11" t="s">
-        <v>240</v>
+      <c r="E51" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" s="4">
         <v>1</v>
       </c>
       <c r="M51" s="4">
-        <v>1</v>
-      </c>
-      <c r="N51" s="4">
         <v>6</v>
       </c>
-      <c r="O51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="12"/>
       <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
+      <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
-      <c r="U51" s="25"/>
-    </row>
-    <row r="52" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G52" s="4">
+        <v>215</v>
+      </c>
+      <c r="F52" s="4">
         <v>2</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="11" t="s">
-        <v>243</v>
+      <c r="G52" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -4012,54 +3960,51 @@
       <c r="M52" s="4">
         <v>0</v>
       </c>
-      <c r="N52" s="4">
-        <v>0</v>
-      </c>
-      <c r="O52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="12"/>
       <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
+      <c r="Q52" s="25">
+        <v>3</v>
+      </c>
       <c r="R52" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S52" s="25">
-        <v>7</v>
-      </c>
-      <c r="T52" s="25">
         <v>6.27</v>
       </c>
-      <c r="U52" s="25" t="s">
+      <c r="T52" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G53" s="4">
-        <v>3</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="11" t="s">
-        <v>221</v>
+        <v>190</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
       </c>
       <c r="L53" s="4">
         <v>0</v>
@@ -4067,138 +4012,144 @@
       <c r="M53" s="4">
         <v>0</v>
       </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="12"/>
       <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-    </row>
-    <row r="54" spans="1:21" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:20" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="D54" s="9"/>
-      <c r="F54" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="E54" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="4">
         <v>4</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="11" t="s">
-        <v>217</v>
+      <c r="G54" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
       </c>
       <c r="L54" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4">
         <v>3</v>
       </c>
-      <c r="N54" s="4">
-        <v>3</v>
-      </c>
-      <c r="O54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="12"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
+      <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
+      <c r="O55" s="12"/>
       <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
+      <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U55" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U55">
+  <autoFilter ref="A1:T55" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T55">
       <sortCondition ref="A1:A55"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K16" r:id="rId2" location="composicaodacarteira" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K3" r:id="rId8" xr:uid="{0ADCBE7F-E09B-48DD-9F5C-30C341B31AC1}"/>
-    <hyperlink ref="K4" r:id="rId9" xr:uid="{B4882A95-67AF-439F-8F8C-BE7A5172AF21}"/>
-    <hyperlink ref="K5" r:id="rId10" xr:uid="{16C64F70-CDEC-40F7-B7A5-49E78C9A77CC}"/>
-    <hyperlink ref="K6" r:id="rId11" xr:uid="{9985AB06-BE94-474C-B4B0-C34A3393FFF5}"/>
-    <hyperlink ref="K7" r:id="rId12" xr:uid="{5BCB7EB7-1C4E-43FD-8662-3E165506B0BB}"/>
-    <hyperlink ref="K8" r:id="rId13" xr:uid="{EAC4C9E7-2020-47B1-926A-D08DAD7AABA0}"/>
-    <hyperlink ref="K9" r:id="rId14" xr:uid="{815A2F78-7222-4B1C-9B50-9D282EDD8F1C}"/>
-    <hyperlink ref="K10" r:id="rId15" xr:uid="{45FF5D8E-79F3-42E4-984C-57CA96BA05D4}"/>
-    <hyperlink ref="K11" r:id="rId16" xr:uid="{C2A9DE13-ED73-4283-8288-CB2DB3C5FCC3}"/>
-    <hyperlink ref="K12" r:id="rId17" xr:uid="{E16AC9CA-B2AA-4A2E-9E75-3DABA80ADC9D}"/>
-    <hyperlink ref="K13" r:id="rId18" xr:uid="{E6132283-F8FB-4938-B1DA-981437245556}"/>
-    <hyperlink ref="K14" r:id="rId19" xr:uid="{3671D44E-D6E5-4318-B4A8-E40AEF4550E7}"/>
-    <hyperlink ref="K15" r:id="rId20" xr:uid="{8AAFA169-2A62-46EF-B0E2-1EBDD5A9E6F1}"/>
-    <hyperlink ref="K17" r:id="rId21" xr:uid="{3C553A4E-B6A2-42E2-9F4D-9E684FD1299E}"/>
-    <hyperlink ref="K18" r:id="rId22" xr:uid="{A65F29E4-1C50-4263-868E-6E41C4477570}"/>
-    <hyperlink ref="K54" r:id="rId23" xr:uid="{CDD43350-FDF1-4684-AFB7-FBE20C0710B6}"/>
-    <hyperlink ref="K53" r:id="rId24" xr:uid="{0403C4BD-637C-4592-B6BB-1C6FDD9B8641}"/>
-    <hyperlink ref="K19" r:id="rId25" xr:uid="{D3610356-DBE0-43D6-9BDA-6E3986B7AD26}"/>
-    <hyperlink ref="K20" r:id="rId26" xr:uid="{801DA091-1F38-4689-954E-936016141F1B}"/>
-    <hyperlink ref="K21" r:id="rId27" xr:uid="{59E10519-19EC-4B33-AD6E-9900513195DF}"/>
-    <hyperlink ref="K22" r:id="rId28" xr:uid="{09CB3D20-210F-40E9-A898-182AFFCF372A}"/>
-    <hyperlink ref="K50" r:id="rId29" xr:uid="{F38D53FB-3EC3-4067-8C74-DBD820F490C4}"/>
-    <hyperlink ref="K51" r:id="rId30" xr:uid="{08B3FB06-0B60-49F5-8B5E-D41D0F66F8FD}"/>
-    <hyperlink ref="K52" r:id="rId31" xr:uid="{E2864719-6C3C-48A3-9C35-70196FD31AB3}"/>
-    <hyperlink ref="K49" r:id="rId32" xr:uid="{3BAE1A82-EC54-423F-A5BE-AACCCFA5BEAC}"/>
-    <hyperlink ref="K47" r:id="rId33" xr:uid="{35BD8266-B04C-49B7-9995-E949829EF7F2}"/>
-    <hyperlink ref="K23" r:id="rId34" xr:uid="{1EDB80BF-F05A-4B41-80A3-29B9D71310CE}"/>
-    <hyperlink ref="K24" r:id="rId35" xr:uid="{51909201-155E-474A-BA06-74C507C0C7D3}"/>
-    <hyperlink ref="K25" r:id="rId36" xr:uid="{D0C8E35B-29E0-4E50-972D-E59CF53086E4}"/>
-    <hyperlink ref="K26" r:id="rId37" xr:uid="{195A5B97-DDDA-46F0-861F-AB19B69181AF}"/>
-    <hyperlink ref="K27" r:id="rId38" xr:uid="{A19453A2-E2A0-42EB-92A3-C9E877C3D4B1}"/>
-    <hyperlink ref="K28" r:id="rId39" xr:uid="{DCEF4A4D-12F1-4B95-B6C4-0738AC56BDC3}"/>
-    <hyperlink ref="K29" r:id="rId40" xr:uid="{3303CF2C-3009-4887-8587-73E48DC95F43}"/>
-    <hyperlink ref="K30" r:id="rId41" xr:uid="{AEA1D6DB-1F18-4B4B-A4F0-1A21105CC632}"/>
-    <hyperlink ref="K31" r:id="rId42" xr:uid="{C07B4734-2D5D-46BE-8ECC-DAC1952E914D}"/>
-    <hyperlink ref="K32" r:id="rId43" xr:uid="{2C04A4E9-864A-454A-B002-050C5A59B11F}"/>
-    <hyperlink ref="K33" r:id="rId44" xr:uid="{0A5D9B41-C2D4-454E-94AD-2B04A2CA403C}"/>
-    <hyperlink ref="K34" r:id="rId45" xr:uid="{2AC42EB6-31A0-4FFB-A07F-EF34FB769A95}"/>
-    <hyperlink ref="K35" r:id="rId46" xr:uid="{33E2673B-1435-4D3A-91A9-85C72E4B2FB9}"/>
-    <hyperlink ref="K37" r:id="rId47" xr:uid="{D3027F1C-7002-4E2F-ACBC-E3356AD1AD51}"/>
+    <hyperlink ref="I32" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J16" r:id="rId2" location="composicaodacarteira" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I36" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J3" r:id="rId8" xr:uid="{0ADCBE7F-E09B-48DD-9F5C-30C341B31AC1}"/>
+    <hyperlink ref="J4" r:id="rId9" xr:uid="{B4882A95-67AF-439F-8F8C-BE7A5172AF21}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{16C64F70-CDEC-40F7-B7A5-49E78C9A77CC}"/>
+    <hyperlink ref="J6" r:id="rId11" xr:uid="{9985AB06-BE94-474C-B4B0-C34A3393FFF5}"/>
+    <hyperlink ref="J7" r:id="rId12" xr:uid="{5BCB7EB7-1C4E-43FD-8662-3E165506B0BB}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{EAC4C9E7-2020-47B1-926A-D08DAD7AABA0}"/>
+    <hyperlink ref="J9" r:id="rId14" xr:uid="{815A2F78-7222-4B1C-9B50-9D282EDD8F1C}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{45FF5D8E-79F3-42E4-984C-57CA96BA05D4}"/>
+    <hyperlink ref="J11" r:id="rId16" xr:uid="{C2A9DE13-ED73-4283-8288-CB2DB3C5FCC3}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{E16AC9CA-B2AA-4A2E-9E75-3DABA80ADC9D}"/>
+    <hyperlink ref="J13" r:id="rId18" xr:uid="{E6132283-F8FB-4938-B1DA-981437245556}"/>
+    <hyperlink ref="J14" r:id="rId19" xr:uid="{3671D44E-D6E5-4318-B4A8-E40AEF4550E7}"/>
+    <hyperlink ref="J15" r:id="rId20" xr:uid="{8AAFA169-2A62-46EF-B0E2-1EBDD5A9E6F1}"/>
+    <hyperlink ref="J17" r:id="rId21" xr:uid="{3C553A4E-B6A2-42E2-9F4D-9E684FD1299E}"/>
+    <hyperlink ref="J18" r:id="rId22" xr:uid="{A65F29E4-1C50-4263-868E-6E41C4477570}"/>
+    <hyperlink ref="J54" r:id="rId23" xr:uid="{CDD43350-FDF1-4684-AFB7-FBE20C0710B6}"/>
+    <hyperlink ref="J53" r:id="rId24" xr:uid="{0403C4BD-637C-4592-B6BB-1C6FDD9B8641}"/>
+    <hyperlink ref="J19" r:id="rId25" xr:uid="{D3610356-DBE0-43D6-9BDA-6E3986B7AD26}"/>
+    <hyperlink ref="J20" r:id="rId26" xr:uid="{801DA091-1F38-4689-954E-936016141F1B}"/>
+    <hyperlink ref="J21" r:id="rId27" xr:uid="{59E10519-19EC-4B33-AD6E-9900513195DF}"/>
+    <hyperlink ref="J22" r:id="rId28" xr:uid="{09CB3D20-210F-40E9-A898-182AFFCF372A}"/>
+    <hyperlink ref="J50" r:id="rId29" xr:uid="{F38D53FB-3EC3-4067-8C74-DBD820F490C4}"/>
+    <hyperlink ref="J51" r:id="rId30" xr:uid="{08B3FB06-0B60-49F5-8B5E-D41D0F66F8FD}"/>
+    <hyperlink ref="J52" r:id="rId31" xr:uid="{E2864719-6C3C-48A3-9C35-70196FD31AB3}"/>
+    <hyperlink ref="J49" r:id="rId32" xr:uid="{3BAE1A82-EC54-423F-A5BE-AACCCFA5BEAC}"/>
+    <hyperlink ref="J47" r:id="rId33" xr:uid="{35BD8266-B04C-49B7-9995-E949829EF7F2}"/>
+    <hyperlink ref="J23" r:id="rId34" xr:uid="{1EDB80BF-F05A-4B41-80A3-29B9D71310CE}"/>
+    <hyperlink ref="J24" r:id="rId35" xr:uid="{51909201-155E-474A-BA06-74C507C0C7D3}"/>
+    <hyperlink ref="J25" r:id="rId36" xr:uid="{D0C8E35B-29E0-4E50-972D-E59CF53086E4}"/>
+    <hyperlink ref="J26" r:id="rId37" xr:uid="{195A5B97-DDDA-46F0-861F-AB19B69181AF}"/>
+    <hyperlink ref="J27" r:id="rId38" xr:uid="{A19453A2-E2A0-42EB-92A3-C9E877C3D4B1}"/>
+    <hyperlink ref="J28" r:id="rId39" xr:uid="{DCEF4A4D-12F1-4B95-B6C4-0738AC56BDC3}"/>
+    <hyperlink ref="J29" r:id="rId40" xr:uid="{3303CF2C-3009-4887-8587-73E48DC95F43}"/>
+    <hyperlink ref="J30" r:id="rId41" xr:uid="{AEA1D6DB-1F18-4B4B-A4F0-1A21105CC632}"/>
+    <hyperlink ref="J31" r:id="rId42" xr:uid="{C07B4734-2D5D-46BE-8ECC-DAC1952E914D}"/>
+    <hyperlink ref="J32" r:id="rId43" xr:uid="{2C04A4E9-864A-454A-B002-050C5A59B11F}"/>
+    <hyperlink ref="J33" r:id="rId44" xr:uid="{0A5D9B41-C2D4-454E-94AD-2B04A2CA403C}"/>
+    <hyperlink ref="J34" r:id="rId45" xr:uid="{2AC42EB6-31A0-4FFB-A07F-EF34FB769A95}"/>
+    <hyperlink ref="J35" r:id="rId46" xr:uid="{33E2673B-1435-4D3A-91A9-85C72E4B2FB9}"/>
+    <hyperlink ref="J37" r:id="rId47" xr:uid="{D3027F1C-7002-4E2F-ACBC-E3356AD1AD51}"/>
+    <hyperlink ref="J38" r:id="rId48" xr:uid="{43252233-21D8-4346-AD10-F4429C3EA6E5}"/>
+    <hyperlink ref="J45" r:id="rId49" xr:uid="{BF982AAA-D991-453E-BBBD-A4F9535A6208}"/>
+    <hyperlink ref="J46" r:id="rId50" xr:uid="{2CFCD0C4-FF25-46BB-9757-E5C159C8C420}"/>
+    <hyperlink ref="J48" r:id="rId51" xr:uid="{08647E0D-4729-458A-A152-123E11EFDF2F}"/>
+    <hyperlink ref="J44" r:id="rId52" xr:uid="{77CF8224-5A15-42FC-AF87-D263DC4B4B30}"/>
+    <hyperlink ref="J41" r:id="rId53" xr:uid="{DD5CF87F-90E8-4A4F-B205-86587815143C}"/>
+    <hyperlink ref="J42" r:id="rId54" xr:uid="{7A062669-0514-4551-A585-8BD45CB8ACDF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId55"/>
 </worksheet>
 </file>